--- a/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/cpu21-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20963\Desktop\大三上课程\Computer-Organization-Course-Design\cpu21-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BB483B-CD2F-4F12-881A-3C27B70B4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B2734-969E-4254-AD21-22CA7A11493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6763" yWindow="4046" windowWidth="16457" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="39">
         <f t="shared" si="8"/>
@@ -3367,15 +3367,15 @@
       </c>
       <c r="R12" s="39">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="39">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="39">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
@@ -3505,20 +3505,22 @@
       <c r="B14" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>0</v>
+      </c>
       <c r="D14" s="37">
         <v>5</v>
       </c>
       <c r="E14" s="29">
         <v>4</v>
       </c>
-      <c r="F14" s="20" t="str">
+      <c r="F14" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G14" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="0"/>
@@ -3602,20 +3604,22 @@
       <c r="B15" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="44">
+        <v>32</v>
+      </c>
       <c r="D15" s="59">
         <v>5</v>
       </c>
       <c r="E15" s="61">
         <v>4</v>
       </c>
-      <c r="F15" s="59" t="str">
+      <c r="F15" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G15" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H15" s="59">
         <f t="shared" si="0"/>
@@ -4992,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="63">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="63">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="63">
         <f t="shared" si="11"/>
@@ -7491,9 +7495,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ58" sqref="AJ58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9273,15 +9277,15 @@
       </c>
       <c r="Q12" s="24" t="str">
         <f>IF(真值表!R12=1,$O12&amp;"+","")</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="R12" s="24" t="str">
         <f>IF(真值表!S12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S12" s="24" t="str">
         <f>IF(真值表!T12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T12" s="24" t="str">
         <f>IF(真值表!U12=1,$O12&amp;"+","")</f>
@@ -9519,9 +9523,9 @@
         <f>IF(ISBLANK(真值表!B14),"",真值表!B14)</f>
         <v>srli</v>
       </c>
-      <c r="B14" s="37" t="str">
+      <c r="B14" s="37">
         <f>IF(ISBLANK(真值表!C14),"",真值表!C14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C14" s="37">
         <f>IF(ISBLANK(真值表!D14),"",真值表!D14)</f>
@@ -9533,11 +9537,11 @@
       </c>
       <c r="E14" s="55" t="str">
         <f>IF(真值表!F14=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F14=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F14" s="55" t="str">
         <f>IF(真值表!G14=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G14=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G14" s="55" t="str">
         <f>IF(真值表!H14=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H14=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
@@ -9573,7 +9577,7 @@
       </c>
       <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P14" s="24" t="str">
         <f>IF(真值表!Q14=1,$O14&amp;"+","")</f>
@@ -9585,7 +9589,7 @@
       </c>
       <c r="R14" s="24" t="str">
         <f>IF(真值表!S14=1,$O14&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S14" s="24" t="str">
         <f>IF(真值表!T14=1,$O14&amp;"+","")</f>
@@ -9601,11 +9605,11 @@
       </c>
       <c r="V14" s="24" t="str">
         <f>IF(真值表!W14=1,$O14&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W14" s="24" t="str">
         <f>IF(真值表!X14=1,$O14&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X14" s="24" t="str">
         <f>IF(真值表!Y14=1,$O14&amp;"+","")</f>
@@ -9673,9 +9677,9 @@
         <f>IF(ISBLANK(真值表!B15),"",真值表!B15)</f>
         <v>srai</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f>IF(ISBLANK(真值表!C15),"",真值表!C15)</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="C15" s="52">
         <f>IF(ISBLANK(真值表!D15),"",真值表!D15)</f>
@@ -9687,11 +9691,11 @@
       </c>
       <c r="E15" s="47" t="str">
         <f>IF(真值表!F15=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F15=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F15" s="47" t="str">
         <f>IF(真值表!G15=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G15=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G15" s="47" t="str">
         <f>IF(真值表!H15=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H15=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
@@ -9727,7 +9731,7 @@
       </c>
       <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P15" s="49" t="str">
         <f>IF(真值表!Q15=1,$O15&amp;"+","")</f>
@@ -9743,7 +9747,7 @@
       </c>
       <c r="S15" s="49" t="str">
         <f>IF(真值表!T15=1,$O15&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T15" s="49" t="str">
         <f>IF(真值表!U15=1,$O15&amp;"+","")</f>
@@ -9755,11 +9759,11 @@
       </c>
       <c r="V15" s="49" t="str">
         <f>IF(真值表!W15=1,$O15&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W15" s="49" t="str">
         <f>IF(真值表!X15=1,$O15&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X15" s="49" t="str">
         <f>IF(真值表!Y15=1,$O15&amp;"+","")</f>
@@ -11887,15 +11891,15 @@
       </c>
       <c r="P29" s="49" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q29" s="49" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="R29" s="49" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S29" s="49" t="str">
         <f>IF(真值表!T29=1,$O29&amp;"+","")</f>
@@ -16310,19 +16314,19 @@
       <c r="O58" s="72"/>
       <c r="P58" s="30" t="str">
         <f t="shared" ref="P58:AL58" si="2">IF(LEN(P59)&gt;1,LEFT(P59,LEN(P59)-1),"")</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Q58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16334,11 +16338,11 @@
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
@@ -16405,22 +16409,22 @@
       <c r="P59" t="str">
         <f>CONCATENATE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11,P12,P13,P14,P15,P16,P17,P18,P19,P20,P21,P22,P23,P24,P25,P26,P27,P28,P29,P30,P31,P32,P33,P34,P35,P36,P37,P38,P39,P40,P41,P42,P43,P44,P45,P46,P47,P48,P49,P50,P51,P52,P53,P54,P55,P56,P57,
 )</f>
-        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16434,11 +16438,11 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16634,7 +16638,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
